--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,91 +448,81 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AMES.DE</t>
+          <t>CEBJ.DE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CEBJ.DE</t>
+          <t>IBC4.DE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GC40.DE</t>
+          <t>PPFB.DE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICGA.DE</t>
+          <t>SXRT.DE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PPFB.DE</t>
+          <t>SXRV.DE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>64</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QDV5.DE</t>
+          <t>SXRY.DE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SXR8.DE</t>
+          <t>SXRZ.DE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>52</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SXRW.DE</t>
+          <t>Risk-Free</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Risk-Free</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>0</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,81 +448,91 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>CEBJ.DE</t>
+          <t>AMES.DE</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>IBC4.DE</t>
+          <t>CEBJ.DE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PPFB.DE</t>
+          <t>GC40.DE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SXRT.DE</t>
+          <t>ICGA.DE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SXRV.DE</t>
+          <t>PPFB.DE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>17</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SXRY.DE</t>
+          <t>QDV5.DE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SXRZ.DE</t>
+          <t>SXR8.DE</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>SXRW.DE</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>Risk-Free</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>304</v>
+      <c r="B10" t="n">
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,87 +452,67 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>CEBJ.DE</t>
+          <t>GC40.DE</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>192</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GC40.DE</t>
+          <t>PPFB.DE</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICGA.DE</t>
+          <t>QDV5.DE</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>PPFB.DE</t>
+          <t>SXR8.DE</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>77</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>QDV5.DE</t>
+          <t>SXRW.DE</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SXR8.DE</t>
+          <t>Risk-Free</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>SXRW.DE</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Risk-Free</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>20</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>33</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>17</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>60</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>46</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>182</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/portfolio.xlsx
+++ b/portfolio.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3">
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>109</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>84</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7">
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>85</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8">
@@ -512,7 +512,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>818</v>
       </c>
     </row>
   </sheetData>
